--- a/工作代码/每日报表/以前文件/利用小时统计分析表2018.11.06.xlsx
+++ b/工作代码/每日报表/以前文件/利用小时统计分析表2018.11.06.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liu14\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\以前文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6925E0-1A7E-4BFF-99DB-640DC813CBB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F631B-8B70-45D7-B141-4F77E3EB786F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="576" windowWidth="12720" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1032" windowWidth="12720" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有燃气电厂" sheetId="3" r:id="rId1"/>
@@ -859,7 +859,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14:J14"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1341,40 +1341,40 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>1242.7350000000001</v>
+        <v>4089.6</v>
       </c>
       <c r="D13" s="18">
-        <v>2057.3519999999999</v>
+        <v>5950</v>
       </c>
       <c r="E13" s="18">
-        <v>1277.76</v>
+        <v>4169.26</v>
       </c>
       <c r="F13" s="18">
-        <v>951.72</v>
+        <v>2821.2400000000002</v>
       </c>
       <c r="G13" s="18">
-        <v>251.81199999999998</v>
+        <v>3222.9</v>
       </c>
       <c r="H13" s="18">
         <v>4874.32</v>
       </c>
       <c r="I13" s="18">
-        <v>33221.120000000003</v>
+        <v>14451.3</v>
       </c>
       <c r="J13" s="18">
-        <v>2011.6799999999998</v>
+        <v>5702.36</v>
       </c>
       <c r="K13" s="19">
         <f>SUM(C13:J13)</f>
-        <v>45888.499000000003</v>
+        <v>45280.98</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="1"/>
-        <v>3289.4399999999996</v>
+        <v>9871.619999999999</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>40107.120000000003</v>
+        <v>25027.98</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1915,23 +1915,23 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="7"/>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="8"/>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="9"/>
-        <v>56278.284</v>
+        <v>59169.784</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="10"/>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="11"/>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="12"/>
@@ -1939,23 +1939,23 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="12"/>
-        <v>305460.23</v>
+        <v>286690.40999999997</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="12"/>
-        <v>85143.165999999997</v>
+        <v>88833.846000000005</v>
       </c>
       <c r="K25" s="12">
         <f>K24+K13</f>
-        <v>1245472.013</v>
+        <v>1244864.4939999999</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>141421.45000000001</v>
+        <v>148003.63</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>681348.47</v>
+        <v>666269.32999999996</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1965,23 +1965,23 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="7"/>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="8"/>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="9"/>
-        <v>56278.284</v>
+        <v>59169.784</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="12"/>
@@ -1989,23 +1989,23 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="12"/>
-        <v>305460.23</v>
+        <v>286690.40999999997</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="12"/>
-        <v>85143.165999999997</v>
+        <v>88833.846000000005</v>
       </c>
       <c r="K26" s="12">
         <f>K25+K14</f>
-        <v>1245472.013</v>
+        <v>1244864.4939999999</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>141421.45000000001</v>
+        <v>148003.63</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>681348.47</v>
+        <v>666269.32999999996</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2581,23 +2581,23 @@
       </c>
       <c r="C38" s="14">
         <f>C13/C27</f>
-        <v>33.880452562704477</v>
+        <v>111.49400218102508</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" ref="D38:J38" si="31">D13/D27</f>
-        <v>38.099111111111107</v>
+        <v>110.18518518518519</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="31"/>
-        <v>52.582716049382711</v>
+        <v>171.57448559670783</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="31"/>
-        <v>25.583870967741934</v>
+        <v>75.839784946236563</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="31"/>
-        <v>4.107862969004894</v>
+        <v>52.575856443719417</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="31"/>
@@ -2605,25 +2605,25 @@
       </c>
       <c r="I38" s="14">
         <f t="shared" si="31"/>
-        <v>283.94119658119661</v>
+        <v>123.5153846153846</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="31"/>
-        <v>45.72</v>
+        <v>129.5990909090909</v>
       </c>
       <c r="K38" s="15">
         <f>K13/K27</f>
-        <v>93.367988524456749</v>
+        <v>92.131887360625058</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="15">
         <f>M13/M27</f>
-        <v>48.161639824304537</v>
+        <v>144.53323572474378</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="15">
         <f t="shared" ref="O38" si="32">O13/O27</f>
-        <v>144.27021582733815</v>
+        <v>90.028705035971228</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3207,23 +3207,23 @@
       </c>
       <c r="C50" s="16">
         <f t="shared" ref="C50:K50" si="55">C25/C27</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" si="55"/>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E50" s="16">
         <f t="shared" si="55"/>
-        <v>2315.9787654320985</v>
+        <v>2434.970534979424</v>
       </c>
       <c r="F50" s="16">
         <f t="shared" si="55"/>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G50" s="16">
         <f t="shared" si="55"/>
-        <v>2014.0598531810767</v>
+        <v>2062.5278466557911</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" si="55"/>
@@ -3231,25 +3231,25 @@
       </c>
       <c r="I50" s="16">
         <f t="shared" si="55"/>
-        <v>2610.7711965811964</v>
+        <v>2450.3453846153843</v>
       </c>
       <c r="J50" s="16">
         <f t="shared" si="55"/>
-        <v>1935.0719545454544</v>
+        <v>2018.9510454545455</v>
       </c>
       <c r="K50" s="17">
         <f t="shared" si="55"/>
-        <v>2534.1255249450637</v>
+        <v>2532.8894237812319</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="17">
         <f>M25/M27</f>
-        <v>2070.5922401171306</v>
+        <v>2166.9638360175695</v>
       </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17">
         <f t="shared" ref="O50" si="56">O25/O27</f>
-        <v>2450.893776978417</v>
+        <v>2396.6522661870504</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3259,23 +3259,23 @@
       </c>
       <c r="C51" s="16">
         <f t="shared" ref="C51:K51" si="57">C26/C27</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="57"/>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="57"/>
-        <v>2315.9787654320985</v>
+        <v>2434.970534979424</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="57"/>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="57"/>
-        <v>2014.0598531810767</v>
+        <v>2062.5278466557911</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="57"/>
@@ -3283,25 +3283,25 @@
       </c>
       <c r="I51" s="16">
         <f t="shared" si="57"/>
-        <v>2610.7711965811964</v>
+        <v>2450.3453846153843</v>
       </c>
       <c r="J51" s="16">
         <f t="shared" si="57"/>
-        <v>1935.0719545454544</v>
+        <v>2018.9510454545455</v>
       </c>
       <c r="K51" s="17">
         <f t="shared" si="57"/>
-        <v>2534.1255249450637</v>
+        <v>2532.8894237812319</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="17">
         <f>M26/M27</f>
-        <v>2070.5922401171306</v>
+        <v>2166.9638360175695</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17">
         <f t="shared" ref="O51" si="58">O26/O27</f>
-        <v>2450.893776978417</v>
+        <v>2396.6522661870504</v>
       </c>
     </row>
   </sheetData>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>1242.7350000000001</v>
+        <v>4089.6</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
-        <v>2057.3519999999999</v>
+        <v>5950</v>
       </c>
       <c r="E13" s="18">
         <f>所有燃气电厂!E13</f>
-        <v>1277.76</v>
+        <v>4169.26</v>
       </c>
       <c r="F13" s="18">
         <f>所有燃气电厂!F13</f>
-        <v>951.72</v>
+        <v>2821.2400000000002</v>
       </c>
       <c r="G13" s="18">
         <f>所有燃气电厂!G13</f>
-        <v>251.81199999999998</v>
+        <v>3222.9</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>5781.3789999999999</v>
+        <v>20253.000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4015,27 +4015,27 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f>SUM(E3:E13)</f>
-        <v>56278.284</v>
+        <v>59169.784</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>564123.54300000006</v>
+        <v>578595.16399999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4045,27 +4045,27 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f>SUM(E3:E14)</f>
-        <v>56278.284</v>
+        <v>59169.784</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>564123.54300000006</v>
+        <v>578595.16399999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4403,27 +4403,27 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>33.880452562704477</v>
+        <v>111.49400218102508</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
-        <v>38.099111111111107</v>
+        <v>110.18518518518519</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="11"/>
-        <v>52.582716049382711</v>
+        <v>171.57448559670783</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="11"/>
-        <v>25.583870967741934</v>
+        <v>75.839784946236563</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="11"/>
-        <v>4.2321344537815122</v>
+        <v>54.166386554621852</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>27.311881141345427</v>
+        <v>95.677437641723373</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4765,27 +4765,27 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="23"/>
-        <v>2315.9787654320985</v>
+        <v>2434.970534979424</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>2074.9893949579832</v>
+        <v>2124.923647058823</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2664.9827239229026</v>
+        <v>2733.3482804232804</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,27 +4795,27 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" si="24"/>
-        <v>2315.9787654320985</v>
+        <v>2434.970534979424</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>2074.9893949579832</v>
+        <v>2124.923647058823</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2664.9827239229026</v>
+        <v>2733.3482804232804</v>
       </c>
     </row>
   </sheetData>
@@ -5090,19 +5090,19 @@
       </c>
       <c r="C13" s="18">
         <f>'110KV'!C13</f>
-        <v>1242.7350000000001</v>
+        <v>4089.6</v>
       </c>
       <c r="D13" s="18">
         <f>'110KV'!D13</f>
-        <v>2057.3519999999999</v>
+        <v>5950</v>
       </c>
       <c r="E13" s="18">
         <f>'110KV'!G13</f>
-        <v>251.81199999999998</v>
+        <v>3222.9</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>3551.8989999999999</v>
+        <v>13262.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,19 +5356,19 @@
       </c>
       <c r="C25" s="11">
         <f>'110KV'!C25</f>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D25" s="11">
         <f>'110KV'!D25</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f>'110KV'!G25</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>397373.81000000006</v>
+        <v>407084.41100000002</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C26" s="11">
         <f>'110KV'!C26</f>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D26" s="11">
         <f>'110KV'!D26</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f>'110KV'!G26</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>397373.81000000006</v>
+        <v>407084.41100000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="C38" s="14">
         <f>'110KV'!C38</f>
-        <v>33.880452562704477</v>
+        <v>111.49400218102508</v>
       </c>
       <c r="D38" s="14">
         <f>'110KV'!D38</f>
-        <v>38.099111111111107</v>
+        <v>110.18518518518519</v>
       </c>
       <c r="E38" s="14">
         <f>'110KV'!G38</f>
-        <v>4.2321344537815122</v>
+        <v>54.166386554621852</v>
       </c>
       <c r="F38" s="14">
         <f>F13/F27</f>
-        <v>23.650945532028231</v>
+        <v>88.310693834065788</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C50" s="21">
         <f>'110KV'!C50</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D50" s="21">
         <f>'110KV'!D50</f>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E50" s="21">
         <f>'110KV'!G50</f>
-        <v>2074.9893949579832</v>
+        <v>2124.923647058823</v>
       </c>
       <c r="F50" s="21">
         <f>F25/F27</f>
-        <v>2645.98355306965</v>
+        <v>2710.6433013716874</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,19 +5932,19 @@
       </c>
       <c r="C51" s="21">
         <f>'110KV'!C51</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D51" s="21">
         <f>'110KV'!D51</f>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E51" s="21">
         <f>'110KV'!G51</f>
-        <v>2074.9893949579832</v>
+        <v>2124.923647058823</v>
       </c>
       <c r="F51" s="21">
         <f>F26/F27</f>
-        <v>2645.98355306965</v>
+        <v>2710.6433013716874</v>
       </c>
     </row>
   </sheetData>
@@ -5964,11 +5964,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6400,35 +6400,35 @@
       </c>
       <c r="C13" s="23">
         <f>所有燃气电厂!C13</f>
-        <v>1242.7350000000001</v>
+        <v>4089.6</v>
       </c>
       <c r="D13" s="23">
         <f>所有燃气电厂!D13</f>
-        <v>2057.3519999999999</v>
+        <v>5950</v>
       </c>
       <c r="E13" s="23">
         <f>所有燃气电厂!E13</f>
-        <v>1277.76</v>
+        <v>4169.26</v>
       </c>
       <c r="F13" s="23">
         <f>所有燃气电厂!F13</f>
-        <v>951.72</v>
+        <v>2821.2400000000002</v>
       </c>
       <c r="G13" s="23">
         <f>所有燃气电厂!G13</f>
-        <v>251.81199999999998</v>
+        <v>3222.9</v>
       </c>
       <c r="H13" s="23">
         <f>所有燃气电厂!J13</f>
-        <v>2011.6799999999998</v>
+        <v>5702.36</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="0"/>
-        <v>7793.0589999999993</v>
+        <v>25955.360000000004</v>
       </c>
       <c r="K13">
         <f>所有燃气电厂!M13</f>
-        <v>3289.4399999999996</v>
+        <v>9871.619999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6858,35 +6858,35 @@
       </c>
       <c r="C25" s="25">
         <f>所有燃气电厂!C25</f>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D25" s="25">
         <f>所有燃气电厂!D25</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E25" s="25">
         <f>所有燃气电厂!E25</f>
-        <v>56278.284</v>
+        <v>59169.784</v>
       </c>
       <c r="F25" s="25">
         <f>所有燃气电厂!F25</f>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G25" s="25">
         <f>所有燃气电厂!G25</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H25" s="25">
         <f>所有燃气电厂!J25</f>
-        <v>85143.165999999997</v>
+        <v>88833.846000000005</v>
       </c>
       <c r="I25" s="32">
         <f t="shared" si="1"/>
-        <v>649266.70900000003</v>
+        <v>667429.01</v>
       </c>
       <c r="K25">
         <f>所有燃气电厂!M25</f>
-        <v>141421.45000000001</v>
+        <v>148003.63</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6896,35 +6896,35 @@
       </c>
       <c r="C26" s="25">
         <f>所有燃气电厂!C26</f>
-        <v>114350.895</v>
+        <v>117197.76000000001</v>
       </c>
       <c r="D26" s="25">
         <f>所有燃气电厂!D26</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E26" s="25">
         <f>所有燃气电厂!E26</f>
-        <v>56278.284</v>
+        <v>59169.784</v>
       </c>
       <c r="F26" s="25">
         <f>所有燃气电厂!F26</f>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G26" s="25">
         <f>所有燃气电厂!G26</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H26" s="25">
         <f>所有燃气电厂!J26</f>
-        <v>85143.165999999997</v>
+        <v>88833.846000000005</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>649266.70900000003</v>
+        <v>667429.01</v>
       </c>
       <c r="K26">
         <f>所有燃气电厂!M26</f>
-        <v>141421.45000000001</v>
+        <v>148003.63</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7364,36 +7364,36 @@
       </c>
       <c r="C38" s="38">
         <f>所有燃气电厂!C38</f>
-        <v>33.880452562704477</v>
+        <v>111.49400218102508</v>
       </c>
       <c r="D38" s="38">
         <f>所有燃气电厂!D38</f>
-        <v>38.099111111111107</v>
+        <v>110.18518518518519</v>
       </c>
       <c r="E38" s="38">
         <f>所有燃气电厂!E38</f>
-        <v>52.582716049382711</v>
+        <v>171.57448559670783</v>
       </c>
       <c r="F38" s="38">
         <f>所有燃气电厂!F38</f>
-        <v>25.583870967741934</v>
+        <v>75.839784946236563</v>
       </c>
       <c r="G38" s="38">
         <f>所有燃气电厂!G38</f>
-        <v>4.107862969004894</v>
+        <v>52.575856443719417</v>
       </c>
       <c r="H38" s="38">
         <f>所有燃气电厂!J38</f>
-        <v>45.72</v>
+        <v>129.5990909090909</v>
       </c>
       <c r="I38" s="39">
         <f>I13/I27</f>
-        <v>30.26665760447413</v>
+        <v>100.80534410439647</v>
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="37">
         <f>所有燃气电厂!M38</f>
-        <v>48.161639824304537</v>
+        <v>144.53323572474378</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,36 +7834,36 @@
       </c>
       <c r="C50" s="35">
         <f>所有燃气电厂!C50</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D50" s="35">
         <f>所有燃气电厂!D50</f>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E50" s="35">
         <f>所有燃气电厂!E50</f>
-        <v>2315.9787654320985</v>
+        <v>2434.970534979424</v>
       </c>
       <c r="F50" s="35">
         <f>所有燃气电厂!F50</f>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G50" s="35">
         <f>所有燃气电厂!G50</f>
-        <v>2014.0598531810767</v>
+        <v>2062.5278466557911</v>
       </c>
       <c r="H50" s="35">
         <f>所有燃气电厂!J50</f>
-        <v>1935.0719545454544</v>
+        <v>2018.9510454545455</v>
       </c>
       <c r="I50" s="36">
         <f>I25/I27</f>
-        <v>2521.6199665993477</v>
+        <v>2592.1586530992695</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37">
         <f>所有燃气电厂!M50</f>
-        <v>2070.5922401171306</v>
+        <v>2166.9638360175695</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7873,36 +7873,36 @@
       </c>
       <c r="C51" s="35">
         <f>所有燃气电厂!C51</f>
-        <v>3117.5271264994549</v>
+        <v>3195.1406761177755</v>
       </c>
       <c r="D51" s="35">
         <f>所有燃气电厂!D51</f>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E51" s="35">
         <f>所有燃气电厂!E51</f>
-        <v>2315.9787654320985</v>
+        <v>2434.970534979424</v>
       </c>
       <c r="F51" s="35">
         <f>所有燃气电厂!F51</f>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G51" s="35">
         <f>所有燃气电厂!G51</f>
-        <v>2014.0598531810767</v>
+        <v>2062.5278466557911</v>
       </c>
       <c r="H51" s="35">
         <f>所有燃气电厂!J51</f>
-        <v>1935.0719545454544</v>
+        <v>2018.9510454545455</v>
       </c>
       <c r="I51" s="36">
         <f>I26/I27</f>
-        <v>2521.6199665993477</v>
+        <v>2592.1586530992695</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37">
         <f>所有燃气电厂!M51</f>
-        <v>2070.5922401171306</v>
+        <v>2166.9638360175695</v>
       </c>
     </row>
   </sheetData>
@@ -8503,23 +8503,23 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>1242.7350000000001</v>
+        <v>4089.6</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
-        <v>2057.3519999999999</v>
+        <v>5950</v>
       </c>
       <c r="E13" s="3">
         <f>所有燃气电厂!E13</f>
-        <v>1277.76</v>
+        <v>4169.26</v>
       </c>
       <c r="F13" s="3">
         <f>所有燃气电厂!F13</f>
-        <v>951.72</v>
+        <v>2821.2400000000002</v>
       </c>
       <c r="G13" s="3">
         <f>所有燃气电厂!G13</f>
-        <v>251.81199999999998</v>
+        <v>3222.9</v>
       </c>
       <c r="H13" s="3">
         <f>所有燃气电厂!H13</f>
@@ -8527,28 +8527,28 @@
       </c>
       <c r="I13" s="3">
         <f>所有燃气电厂!I13</f>
-        <v>33221.120000000003</v>
+        <v>14451.3</v>
       </c>
       <c r="J13" s="3">
         <f>所有燃气电厂!J13</f>
-        <v>2011.6799999999998</v>
+        <v>5702.36</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>45888.499000000003</v>
+        <v>45280.98</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>3289.4399999999996</v>
+        <v>9871.619999999999</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>7793.0589999999993</v>
+        <v>25955.360000000004</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>3551.8989999999999</v>
+        <v>13262.5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -9165,23 +9165,23 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>109812.647</v>
+        <v>112659.512</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
-        <v>146981.35800000001</v>
+        <v>150874.00599999999</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>57733.804000000004</v>
+        <v>60625.304000000004</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="6"/>
-        <v>105935.33500000001</v>
+        <v>107804.85500000001</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="6"/>
-        <v>118324.023</v>
+        <v>121295.11099999999</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="6"/>
@@ -9189,28 +9189,28 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
-        <v>298222.01</v>
+        <v>279452.19</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
-        <v>79420.349999999991</v>
+        <v>83111.03</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1210337.7610000002</v>
+        <v>1209730.2420000001</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>137154.15399999998</v>
+        <v>143736.334</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>618207.51699999999</v>
+        <v>636369.81800000009</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>375118.02799999999</v>
+        <v>384828.62899999996</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -9220,23 +9220,23 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>109812.647</v>
+        <v>112659.512</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>146981.35800000001</v>
+        <v>150874.00599999999</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>57733.804000000004</v>
+        <v>60625.304000000004</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>105935.33500000001</v>
+        <v>107804.85500000001</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>118324.023</v>
+        <v>121295.11099999999</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
@@ -9244,28 +9244,28 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>298222.01</v>
+        <v>279452.19</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>79420.349999999991</v>
+        <v>83111.03</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1210337.7610000002</v>
+        <v>1209730.2420000001</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>137154.15399999998</v>
+        <v>143736.334</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>618207.51699999999</v>
+        <v>636369.81800000009</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>375118.02799999999</v>
+        <v>384828.62899999996</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -9881,23 +9881,23 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>33.880452562704477</v>
+        <v>111.49400218102508</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
-        <v>38.099111111111107</v>
+        <v>110.18518518518519</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="17"/>
-        <v>52.582716049382711</v>
+        <v>171.57448559670783</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="17"/>
-        <v>25.583870967741934</v>
+        <v>75.839784946236563</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" si="17"/>
-        <v>4.107862969004894</v>
+        <v>52.575856443719417</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="17"/>
@@ -9905,28 +9905,28 @@
       </c>
       <c r="I38" s="28">
         <f t="shared" si="17"/>
-        <v>283.94119658119661</v>
+        <v>123.5153846153846</v>
       </c>
       <c r="J38" s="28">
         <f t="shared" si="17"/>
-        <v>45.72</v>
+        <v>129.5990909090909</v>
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>93.367988524456749</v>
+        <v>92.131887360625058</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
         <f>M13/M27</f>
-        <v>48.161639824304537</v>
+        <v>144.53323572474378</v>
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>30.26665760447413</v>
+        <v>100.80534410439647</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>23.370831688380047</v>
+        <v>87.264771680484259</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -10543,23 +10543,23 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>2993.8017175572518</v>
+        <v>3071.4152671755728</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
-        <v>2721.877</v>
+        <v>2793.963074074074</v>
       </c>
       <c r="E50" s="28">
         <f t="shared" si="29"/>
-        <v>2375.8767078189303</v>
+        <v>2494.8684773662553</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="29"/>
-        <v>2847.7240591397849</v>
+        <v>2897.9799731182798</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="29"/>
-        <v>1930.2450734094618</v>
+        <v>1978.7130668841762</v>
       </c>
       <c r="H50" s="28">
         <f t="shared" si="29"/>
@@ -10567,28 +10567,28 @@
       </c>
       <c r="I50" s="28">
         <f t="shared" si="29"/>
-        <v>2548.9060683760686</v>
+        <v>2388.4802564102565</v>
       </c>
       <c r="J50" s="28">
         <f t="shared" si="29"/>
-        <v>1805.0079545454544</v>
+        <v>1888.8870454545454</v>
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2462.6388886628147</v>
+        <v>2461.4027874989829</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
         <f>M25/M27</f>
-        <v>2008.1135285505122</v>
+        <v>2104.4851244509518</v>
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2400.9923761068817</v>
+        <v>2471.5310626068044</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2468.2065271746278</v>
+        <v>2532.100467166732</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -10598,23 +10598,23 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>2993.8017175572518</v>
+        <v>3071.4152671755728</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>2721.877</v>
+        <v>2793.963074074074</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2375.8767078189303</v>
+        <v>2494.8684773662553</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>2847.7240591397849</v>
+        <v>2897.9799731182798</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>1930.2450734094618</v>
+        <v>1978.7130668841762</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
@@ -10622,28 +10622,28 @@
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2548.9060683760686</v>
+        <v>2388.4802564102565</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>1805.0079545454544</v>
+        <v>1888.8870454545454</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2462.6388886628147</v>
+        <v>2461.4027874989829</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2008.1135285505122</v>
+        <v>2104.4851244509518</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2400.9923761068817</v>
+        <v>2471.5310626068044</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2468.2065271746278</v>
+        <v>2532.100467166732</v>
       </c>
     </row>
   </sheetData>
@@ -11245,23 +11245,23 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>1242.7350000000001</v>
+        <v>4089.6</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
-        <v>2057.3519999999999</v>
+        <v>5950</v>
       </c>
       <c r="E13" s="3">
         <f>所有燃气电厂!E13</f>
-        <v>1277.76</v>
+        <v>4169.26</v>
       </c>
       <c r="F13" s="3">
         <f>所有燃气电厂!F13</f>
-        <v>951.72</v>
+        <v>2821.2400000000002</v>
       </c>
       <c r="G13" s="3">
         <f>所有燃气电厂!G13</f>
-        <v>251.81199999999998</v>
+        <v>3222.9</v>
       </c>
       <c r="H13" s="3">
         <f>所有燃气电厂!H13</f>
@@ -11269,28 +11269,28 @@
       </c>
       <c r="I13" s="3">
         <f>所有燃气电厂!I13</f>
-        <v>33221.120000000003</v>
+        <v>14451.3</v>
       </c>
       <c r="J13" s="3">
         <f>所有燃气电厂!J13</f>
-        <v>2011.6799999999998</v>
+        <v>5702.36</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>45888.499000000003</v>
+        <v>45280.98</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>3289.4399999999996</v>
+        <v>9871.619999999999</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>7793.0589999999993</v>
+        <v>25955.360000000004</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>3551.8989999999999</v>
+        <v>13262.5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -11907,23 +11907,23 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>118937.927</v>
+        <v>121784.792</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
-        <v>162741.67800000001</v>
+        <v>166634.326</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>66880.539999999994</v>
+        <v>69772.039999999994</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="6"/>
-        <v>112274.87300000001</v>
+        <v>114144.39300000001</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="6"/>
-        <v>134763.43100000001</v>
+        <v>137734.519</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="6"/>
@@ -11931,28 +11931,28 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
-        <v>319414.23</v>
+        <v>300644.40999999997</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
-        <v>89293.245999999999</v>
+        <v>92983.926000000007</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1312509.0990000002</v>
+        <v>1311901.5799999998</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>156173.78599999999</v>
+        <v>162755.96600000001</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>684891.69500000007</v>
+        <v>703053.99599999993</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>416443.03599999996</v>
+        <v>426153.63699999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11962,23 +11962,23 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>118937.927</v>
+        <v>121784.792</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>162741.67800000001</v>
+        <v>166634.326</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>66880.539999999994</v>
+        <v>69772.039999999994</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>112274.87300000001</v>
+        <v>114144.39300000001</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>134763.43100000001</v>
+        <v>137734.519</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
@@ -11986,28 +11986,28 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>319414.23</v>
+        <v>300644.40999999997</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>89293.245999999999</v>
+        <v>92983.926000000007</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1312509.0990000002</v>
+        <v>1311901.5799999998</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>156173.78599999999</v>
+        <v>162755.96600000001</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>684891.69500000007</v>
+        <v>703053.99599999993</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>416443.03599999996</v>
+        <v>426153.63699999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -12623,23 +12623,23 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>33.880452562704477</v>
+        <v>111.49400218102508</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
-        <v>38.099111111111107</v>
+        <v>110.18518518518519</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="17"/>
-        <v>52.582716049382711</v>
+        <v>171.57448559670783</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="17"/>
-        <v>25.583870967741934</v>
+        <v>75.839784946236563</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" si="17"/>
-        <v>4.107862969004894</v>
+        <v>52.575856443719417</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="17"/>
@@ -12647,28 +12647,28 @@
       </c>
       <c r="I38" s="28">
         <f t="shared" si="17"/>
-        <v>283.94119658119661</v>
+        <v>123.5153846153846</v>
       </c>
       <c r="J38" s="28">
         <f t="shared" si="17"/>
-        <v>45.72</v>
+        <v>129.5990909090909</v>
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>93.367988524456749</v>
+        <v>92.131887360625058</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
         <f>M13/M27</f>
-        <v>48.161639824304537</v>
+        <v>144.53323572474378</v>
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>30.26665760447413</v>
+        <v>100.80534410439647</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>23.370831688380047</v>
+        <v>87.264771680484259</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -13285,23 +13285,23 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>3242.5825245365322</v>
+        <v>3320.1960741548528</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
-        <v>3013.7347777777782</v>
+        <v>3085.8208518518518</v>
       </c>
       <c r="E50" s="28">
         <f t="shared" si="29"/>
-        <v>2752.2855967078185</v>
+        <v>2871.2773662551435</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="29"/>
-        <v>3018.1417473118281</v>
+        <v>3068.3976612903225</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="29"/>
-        <v>2198.4246492659058</v>
+        <v>2246.89264274062</v>
       </c>
       <c r="H50" s="28">
         <f t="shared" si="29"/>
@@ -13309,28 +13309,28 @@
       </c>
       <c r="I50" s="28">
         <f t="shared" si="29"/>
-        <v>2730.0361538461539</v>
+        <v>2569.6103418803418</v>
       </c>
       <c r="J50" s="28">
         <f t="shared" si="29"/>
-        <v>2029.3919545454546</v>
+        <v>2113.2710454545454</v>
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2670.523925693823</v>
+        <v>2669.2878245299908</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
         <f>M25/M27</f>
-        <v>2286.585446559297</v>
+        <v>2382.9570424597368</v>
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2659.9801732173373</v>
+        <v>2730.5188597172591</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2740.1173575470452</v>
+        <v>2804.0112975391494</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -13340,23 +13340,23 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3242.5825245365322</v>
+        <v>3320.1960741548528</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>3013.7347777777782</v>
+        <v>3085.8208518518518</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2752.2855967078185</v>
+        <v>2871.2773662551435</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>3018.1417473118281</v>
+        <v>3068.3976612903225</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2198.4246492659058</v>
+        <v>2246.89264274062</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
@@ -13364,28 +13364,28 @@
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2730.0361538461539</v>
+        <v>2569.6103418803418</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2029.3919545454546</v>
+        <v>2113.2710454545454</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2670.523925693823</v>
+        <v>2669.2878245299908</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2286.585446559297</v>
+        <v>2382.9570424597368</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2659.9801732173373</v>
+        <v>2730.5188597172591</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2740.1173575470452</v>
+        <v>2804.0112975391494</v>
       </c>
     </row>
   </sheetData>
@@ -15611,27 +15611,27 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>1242.7350000000001</v>
+        <v>4089.6</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
-        <v>2057.3519999999999</v>
+        <v>5950</v>
       </c>
       <c r="E13" s="18">
         <f>所有燃气电厂!M13</f>
-        <v>3289.4399999999996</v>
+        <v>9871.619999999999</v>
       </c>
       <c r="F13" s="18">
         <f>所有燃气电厂!F13</f>
-        <v>951.72</v>
+        <v>2821.2400000000002</v>
       </c>
       <c r="G13" s="18">
         <f>所有燃气电厂!G13</f>
-        <v>251.81199999999998</v>
+        <v>3222.9</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>7793.0590000000002</v>
+        <v>25955.360000000004</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15961,27 +15961,27 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>112486.0781</v>
+        <v>115332.9431</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E25" s="10">
         <f>所有燃气电厂!M25</f>
-        <v>141421.45000000001</v>
+        <v>148003.63</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>647401.89210000006</v>
+        <v>665564.19310000003</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15991,27 +15991,27 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>112486.0781</v>
+        <v>115332.9431</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
-        <v>159561.04600000003</v>
+        <v>163453.69400000002</v>
       </c>
       <c r="E26" s="10">
         <f>所有燃气电厂!M26</f>
-        <v>141421.45000000001</v>
+        <v>148003.63</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
-        <v>110471.44900000001</v>
+        <v>112340.96900000001</v>
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>123461.86899999999</v>
+        <v>126432.95699999998</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>647401.89210000006</v>
+        <v>665564.19310000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -16350,27 +16350,27 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>33.880452562704477</v>
+        <v>111.49400218102508</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
-        <v>38.099111111111107</v>
+        <v>110.18518518518519</v>
       </c>
       <c r="E38" s="14">
         <f>所有燃气电厂!M38</f>
-        <v>48.161639824304537</v>
+        <v>144.53323572474378</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="11"/>
-        <v>25.583870967741934</v>
+        <v>75.839784946236563</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="11"/>
-        <v>4.107862969004894</v>
+        <v>52.575856443719417</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>30.266657604474133</v>
+        <v>100.80534410439647</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16712,27 +16712,27 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3066.6869711014178</v>
+        <v>3144.3005207197384</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E50" s="42">
         <f>所有燃气电厂!M50</f>
-        <v>2070.5922401171306</v>
+        <v>2166.9638360175695</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>2014.0598531810767</v>
+        <v>2062.5278466557911</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2514.3773966910053</v>
+        <v>2584.9160831909276</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16742,27 +16742,27 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3066.6869711014178</v>
+        <v>3144.3005207197384</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
-        <v>2954.8341851851856</v>
+        <v>3026.9202592592596</v>
       </c>
       <c r="E51" s="42">
         <f>所有燃气电厂!M51</f>
-        <v>2070.5922401171306</v>
+        <v>2166.9638360175695</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
-        <v>2969.6626075268819</v>
+        <v>3019.9185215053762</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>2014.0598531810767</v>
+        <v>2062.5278466557911</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2514.3773966910053</v>
+        <v>2584.9160831909276</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/以前文件/利用小时统计分析表2018.11.06.xlsx
+++ b/工作代码/每日报表/以前文件/利用小时统计分析表2018.11.06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\以前文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F631B-8B70-45D7-B141-4F77E3EB786F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4FBCA-B971-49AC-8A80-AAC818B53F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1032" windowWidth="12720" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1488" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有燃气电厂" sheetId="3" r:id="rId1"/>
@@ -855,11 +855,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1341,40 +1341,40 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="D13" s="18">
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="E13" s="18">
-        <v>4169.26</v>
+        <v>6454.45</v>
       </c>
       <c r="F13" s="18">
-        <v>2821.2400000000002</v>
+        <v>4125.7800000000007</v>
       </c>
       <c r="G13" s="18">
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="H13" s="18">
-        <v>4874.32</v>
+        <v>487.43199999999996</v>
       </c>
       <c r="I13" s="18">
-        <v>14451.3</v>
+        <v>22757.9</v>
       </c>
       <c r="J13" s="18">
         <v>5702.36</v>
       </c>
       <c r="K13" s="19">
         <f>SUM(C13:J13)</f>
-        <v>45280.98</v>
+        <v>58067.932000000001</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="1"/>
-        <v>9871.619999999999</v>
+        <v>12156.81</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>25027.98</v>
+        <v>28947.692000000003</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1915,31 +1915,31 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="7"/>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="8"/>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="9"/>
-        <v>59169.784</v>
+        <v>61454.973999999995</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="10"/>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="11"/>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="12"/>
-        <v>290745.07400000002</v>
+        <v>286358.18599999999</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="12"/>
-        <v>286690.40999999997</v>
+        <v>294997.01</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="12"/>
@@ -1947,15 +1947,15 @@
       </c>
       <c r="K25" s="12">
         <f>K24+K13</f>
-        <v>1244864.4939999999</v>
+        <v>1257651.446</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>148003.63</v>
+        <v>150288.82</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>666269.32999999996</v>
+        <v>670189.04200000002</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1965,31 +1965,31 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="7"/>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="8"/>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="9"/>
-        <v>59169.784</v>
+        <v>61454.973999999995</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="12"/>
-        <v>290745.07400000002</v>
+        <v>286358.18599999999</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="12"/>
-        <v>286690.40999999997</v>
+        <v>294997.01</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="12"/>
@@ -1997,15 +1997,15 @@
       </c>
       <c r="K26" s="12">
         <f>K25+K14</f>
-        <v>1244864.4939999999</v>
+        <v>1257651.446</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>148003.63</v>
+        <v>150288.82</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>666269.32999999996</v>
+        <v>670189.04200000002</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2581,31 +2581,31 @@
       </c>
       <c r="C38" s="14">
         <f>C13/C27</f>
-        <v>111.49400218102508</v>
+        <v>157.2546346782988</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" ref="D38:J38" si="31">D13/D27</f>
-        <v>110.18518518518519</v>
+        <v>145.7037037037037</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="31"/>
-        <v>171.57448559670783</v>
+        <v>265.61522633744852</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="31"/>
-        <v>75.839784946236563</v>
+        <v>110.90806451612904</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="31"/>
-        <v>52.575856443719417</v>
+        <v>79.998531810766721</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="31"/>
-        <v>41.660854700854699</v>
+        <v>4.1660854700854699</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="31"/>
-        <v>123.5153846153846</v>
+        <v>194.51196581196584</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="31"/>
@@ -2613,17 +2613,17 @@
       </c>
       <c r="K38" s="15">
         <f>K13/K27</f>
-        <v>92.131887360625058</v>
+        <v>118.14912509156018</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="15">
         <f>M13/M27</f>
-        <v>144.53323572474378</v>
+        <v>177.99136163982431</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="15">
         <f t="shared" ref="O38" si="32">O13/O27</f>
-        <v>90.028705035971228</v>
+        <v>104.12838848920865</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3207,31 +3207,31 @@
       </c>
       <c r="C50" s="16">
         <f t="shared" ref="C50:K50" si="55">C25/C27</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" si="55"/>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E50" s="16">
         <f t="shared" si="55"/>
-        <v>2434.970534979424</v>
+        <v>2529.0112757201641</v>
       </c>
       <c r="F50" s="16">
         <f t="shared" si="55"/>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G50" s="16">
         <f t="shared" si="55"/>
-        <v>2062.5278466557911</v>
+        <v>2089.9505220228384</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" si="55"/>
-        <v>2485.0006324786327</v>
+        <v>2447.5058632478631</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="55"/>
-        <v>2450.3453846153843</v>
+        <v>2521.341965811966</v>
       </c>
       <c r="J50" s="16">
         <f t="shared" si="55"/>
@@ -3239,17 +3239,17 @@
       </c>
       <c r="K50" s="17">
         <f t="shared" si="55"/>
-        <v>2532.8894237812319</v>
+        <v>2558.9066615121674</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="17">
         <f>M25/M27</f>
-        <v>2166.9638360175695</v>
+        <v>2200.4219619326504</v>
       </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17">
         <f t="shared" ref="O50" si="56">O25/O27</f>
-        <v>2396.6522661870504</v>
+        <v>2410.7519496402879</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3259,31 +3259,31 @@
       </c>
       <c r="C51" s="16">
         <f t="shared" ref="C51:K51" si="57">C26/C27</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="57"/>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="57"/>
-        <v>2434.970534979424</v>
+        <v>2529.0112757201641</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="57"/>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="57"/>
-        <v>2062.5278466557911</v>
+        <v>2089.9505220228384</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="57"/>
-        <v>2485.0006324786327</v>
+        <v>2447.5058632478631</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="57"/>
-        <v>2450.3453846153843</v>
+        <v>2521.341965811966</v>
       </c>
       <c r="J51" s="16">
         <f t="shared" si="57"/>
@@ -3291,17 +3291,17 @@
       </c>
       <c r="K51" s="17">
         <f t="shared" si="57"/>
-        <v>2532.8894237812319</v>
+        <v>2558.9066615121674</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="17">
         <f>M26/M27</f>
-        <v>2166.9638360175695</v>
+        <v>2200.4219619326504</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17">
         <f t="shared" ref="O51" si="58">O26/O27</f>
-        <v>2396.6522661870504</v>
+        <v>2410.7519496402879</v>
       </c>
     </row>
   </sheetData>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="E13" s="18">
         <f>所有燃气电厂!E13</f>
-        <v>4169.26</v>
+        <v>6454.45</v>
       </c>
       <c r="F13" s="18">
         <f>所有燃气电厂!F13</f>
-        <v>2821.2400000000002</v>
+        <v>4125.7800000000007</v>
       </c>
       <c r="G13" s="18">
         <f>所有燃气电厂!G13</f>
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>20253.000000000004</v>
+        <v>29120.240000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4015,27 +4015,27 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f>SUM(E3:E13)</f>
-        <v>59169.784</v>
+        <v>61454.973999999995</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>578595.16399999999</v>
+        <v>587462.40399999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4045,27 +4045,27 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f>SUM(E3:E14)</f>
-        <v>59169.784</v>
+        <v>61454.973999999995</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>578595.16399999999</v>
+        <v>587462.40399999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4403,27 +4403,27 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>111.49400218102508</v>
+        <v>157.2546346782988</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
-        <v>110.18518518518519</v>
+        <v>145.7037037037037</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="11"/>
-        <v>171.57448559670783</v>
+        <v>265.61522633744852</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="11"/>
-        <v>75.839784946236563</v>
+        <v>110.90806451612904</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="11"/>
-        <v>54.166386554621852</v>
+        <v>82.418655462184873</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>95.677437641723373</v>
+        <v>137.56727135298564</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4765,27 +4765,27 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="23"/>
-        <v>2434.970534979424</v>
+        <v>2529.0112757201641</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>2124.923647058823</v>
+        <v>2153.1759159663866</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2733.3482804232804</v>
+        <v>2775.2381141345427</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,27 +4795,27 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" si="24"/>
-        <v>2434.970534979424</v>
+        <v>2529.0112757201641</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>2124.923647058823</v>
+        <v>2153.1759159663866</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2733.3482804232804</v>
+        <v>2775.2381141345427</v>
       </c>
     </row>
   </sheetData>
@@ -5090,19 +5090,19 @@
       </c>
       <c r="C13" s="18">
         <f>'110KV'!C13</f>
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="D13" s="18">
         <f>'110KV'!D13</f>
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="E13" s="18">
         <f>'110KV'!G13</f>
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>13262.5</v>
+        <v>18540.010000000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,19 +5356,19 @@
       </c>
       <c r="C25" s="11">
         <f>'110KV'!C25</f>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D25" s="11">
         <f>'110KV'!D25</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f>'110KV'!G25</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>407084.41100000002</v>
+        <v>412361.92100000003</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C26" s="11">
         <f>'110KV'!C26</f>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D26" s="11">
         <f>'110KV'!D26</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f>'110KV'!G26</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>407084.41100000002</v>
+        <v>412361.92100000003</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="C38" s="14">
         <f>'110KV'!C38</f>
-        <v>111.49400218102508</v>
+        <v>157.2546346782988</v>
       </c>
       <c r="D38" s="14">
         <f>'110KV'!D38</f>
-        <v>110.18518518518519</v>
+        <v>145.7037037037037</v>
       </c>
       <c r="E38" s="14">
         <f>'110KV'!G38</f>
-        <v>54.166386554621852</v>
+        <v>82.418655462184873</v>
       </c>
       <c r="F38" s="14">
         <f>F13/F27</f>
-        <v>88.310693834065788</v>
+        <v>123.45192435743775</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C50" s="21">
         <f>'110KV'!C50</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D50" s="21">
         <f>'110KV'!D50</f>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E50" s="21">
         <f>'110KV'!G50</f>
-        <v>2124.923647058823</v>
+        <v>2153.1759159663866</v>
       </c>
       <c r="F50" s="21">
         <f>F25/F27</f>
-        <v>2710.6433013716874</v>
+        <v>2745.7845318950594</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,19 +5932,19 @@
       </c>
       <c r="C51" s="21">
         <f>'110KV'!C51</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D51" s="21">
         <f>'110KV'!D51</f>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E51" s="21">
         <f>'110KV'!G51</f>
-        <v>2124.923647058823</v>
+        <v>2153.1759159663866</v>
       </c>
       <c r="F51" s="21">
         <f>F26/F27</f>
-        <v>2710.6433013716874</v>
+        <v>2745.7845318950594</v>
       </c>
     </row>
   </sheetData>
@@ -5964,11 +5964,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6400,23 +6400,23 @@
       </c>
       <c r="C13" s="23">
         <f>所有燃气电厂!C13</f>
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="D13" s="23">
         <f>所有燃气电厂!D13</f>
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="E13" s="23">
         <f>所有燃气电厂!E13</f>
-        <v>4169.26</v>
+        <v>6454.45</v>
       </c>
       <c r="F13" s="23">
         <f>所有燃气电厂!F13</f>
-        <v>2821.2400000000002</v>
+        <v>4125.7800000000007</v>
       </c>
       <c r="G13" s="23">
         <f>所有燃气电厂!G13</f>
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="H13" s="23">
         <f>所有燃气电厂!J13</f>
@@ -6424,11 +6424,11 @@
       </c>
       <c r="I13" s="31">
         <f t="shared" si="0"/>
-        <v>25955.360000000004</v>
+        <v>34822.6</v>
       </c>
       <c r="K13">
         <f>所有燃气电厂!M13</f>
-        <v>9871.619999999999</v>
+        <v>12156.81</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6858,23 +6858,23 @@
       </c>
       <c r="C25" s="25">
         <f>所有燃气电厂!C25</f>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D25" s="25">
         <f>所有燃气电厂!D25</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E25" s="25">
         <f>所有燃气电厂!E25</f>
-        <v>59169.784</v>
+        <v>61454.973999999995</v>
       </c>
       <c r="F25" s="25">
         <f>所有燃气电厂!F25</f>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G25" s="25">
         <f>所有燃气电厂!G25</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H25" s="25">
         <f>所有燃气电厂!J25</f>
@@ -6882,11 +6882,11 @@
       </c>
       <c r="I25" s="32">
         <f t="shared" si="1"/>
-        <v>667429.01</v>
+        <v>676296.25</v>
       </c>
       <c r="K25">
         <f>所有燃气电厂!M25</f>
-        <v>148003.63</v>
+        <v>150288.82</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6896,23 +6896,23 @@
       </c>
       <c r="C26" s="25">
         <f>所有燃气电厂!C26</f>
-        <v>117197.76000000001</v>
+        <v>118876.26000000001</v>
       </c>
       <c r="D26" s="25">
         <f>所有燃气电厂!D26</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E26" s="25">
         <f>所有燃气电厂!E26</f>
-        <v>59169.784</v>
+        <v>61454.973999999995</v>
       </c>
       <c r="F26" s="25">
         <f>所有燃气电厂!F26</f>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G26" s="25">
         <f>所有燃气电厂!G26</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H26" s="25">
         <f>所有燃气电厂!J26</f>
@@ -6920,11 +6920,11 @@
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>667429.01</v>
+        <v>676296.25</v>
       </c>
       <c r="K26">
         <f>所有燃气电厂!M26</f>
-        <v>148003.63</v>
+        <v>150288.82</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7364,23 +7364,23 @@
       </c>
       <c r="C38" s="38">
         <f>所有燃气电厂!C38</f>
-        <v>111.49400218102508</v>
+        <v>157.2546346782988</v>
       </c>
       <c r="D38" s="38">
         <f>所有燃气电厂!D38</f>
-        <v>110.18518518518519</v>
+        <v>145.7037037037037</v>
       </c>
       <c r="E38" s="38">
         <f>所有燃气电厂!E38</f>
-        <v>171.57448559670783</v>
+        <v>265.61522633744852</v>
       </c>
       <c r="F38" s="38">
         <f>所有燃气电厂!F38</f>
-        <v>75.839784946236563</v>
+        <v>110.90806451612904</v>
       </c>
       <c r="G38" s="38">
         <f>所有燃气电厂!G38</f>
-        <v>52.575856443719417</v>
+        <v>79.998531810766721</v>
       </c>
       <c r="H38" s="38">
         <f>所有燃气电厂!J38</f>
@@ -7388,12 +7388,12 @@
       </c>
       <c r="I38" s="39">
         <f>I13/I27</f>
-        <v>100.80534410439647</v>
+        <v>135.24390243902437</v>
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="37">
         <f>所有燃气电厂!M38</f>
-        <v>144.53323572474378</v>
+        <v>177.99136163982431</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,23 +7834,23 @@
       </c>
       <c r="C50" s="35">
         <f>所有燃气电厂!C50</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D50" s="35">
         <f>所有燃气电厂!D50</f>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E50" s="35">
         <f>所有燃气电厂!E50</f>
-        <v>2434.970534979424</v>
+        <v>2529.0112757201641</v>
       </c>
       <c r="F50" s="35">
         <f>所有燃气电厂!F50</f>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G50" s="35">
         <f>所有燃气电厂!G50</f>
-        <v>2062.5278466557911</v>
+        <v>2089.9505220228384</v>
       </c>
       <c r="H50" s="35">
         <f>所有燃气电厂!J50</f>
@@ -7858,12 +7858,12 @@
       </c>
       <c r="I50" s="36">
         <f>I25/I27</f>
-        <v>2592.1586530992695</v>
+        <v>2626.5972114338974</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37">
         <f>所有燃气电厂!M50</f>
-        <v>2166.9638360175695</v>
+        <v>2200.4219619326504</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7873,23 +7873,23 @@
       </c>
       <c r="C51" s="35">
         <f>所有燃气电厂!C51</f>
-        <v>3195.1406761177755</v>
+        <v>3240.9013086150494</v>
       </c>
       <c r="D51" s="35">
         <f>所有燃气电厂!D51</f>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E51" s="35">
         <f>所有燃气电厂!E51</f>
-        <v>2434.970534979424</v>
+        <v>2529.0112757201641</v>
       </c>
       <c r="F51" s="35">
         <f>所有燃气电厂!F51</f>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G51" s="35">
         <f>所有燃气电厂!G51</f>
-        <v>2062.5278466557911</v>
+        <v>2089.9505220228384</v>
       </c>
       <c r="H51" s="35">
         <f>所有燃气电厂!J51</f>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="I51" s="36">
         <f>I26/I27</f>
-        <v>2592.1586530992695</v>
+        <v>2626.5972114338974</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37">
         <f>所有燃气电厂!M51</f>
-        <v>2166.9638360175695</v>
+        <v>2200.4219619326504</v>
       </c>
     </row>
   </sheetData>
@@ -8503,31 +8503,31 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="E13" s="3">
         <f>所有燃气电厂!E13</f>
-        <v>4169.26</v>
+        <v>6454.45</v>
       </c>
       <c r="F13" s="3">
         <f>所有燃气电厂!F13</f>
-        <v>2821.2400000000002</v>
+        <v>4125.7800000000007</v>
       </c>
       <c r="G13" s="3">
         <f>所有燃气电厂!G13</f>
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="H13" s="3">
         <f>所有燃气电厂!H13</f>
-        <v>4874.32</v>
+        <v>487.43199999999996</v>
       </c>
       <c r="I13" s="3">
         <f>所有燃气电厂!I13</f>
-        <v>14451.3</v>
+        <v>22757.9</v>
       </c>
       <c r="J13" s="3">
         <f>所有燃气电厂!J13</f>
@@ -8535,20 +8535,20 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>45280.98</v>
+        <v>58067.932000000001</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>9871.619999999999</v>
+        <v>12156.81</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>25955.360000000004</v>
+        <v>34822.6</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>13262.5</v>
+        <v>18540.010000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -9165,31 +9165,31 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>112659.512</v>
+        <v>114338.012</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
-        <v>150874.00599999999</v>
+        <v>152792.00599999999</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>60625.304000000004</v>
+        <v>62910.493999999999</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="6"/>
-        <v>107804.85500000001</v>
+        <v>109109.395</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="6"/>
-        <v>121295.11099999999</v>
+        <v>122976.121</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="6"/>
-        <v>293908.234</v>
+        <v>289521.34599999996</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
-        <v>279452.19</v>
+        <v>287758.79000000004</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
@@ -9197,20 +9197,20 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1209730.2420000001</v>
+        <v>1222517.1940000001</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>143736.334</v>
+        <v>146021.524</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>636369.81800000009</v>
+        <v>645237.05800000008</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>384828.62899999996</v>
+        <v>390106.13899999997</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -9220,31 +9220,31 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>112659.512</v>
+        <v>114338.012</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>150874.00599999999</v>
+        <v>152792.00599999999</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>60625.304000000004</v>
+        <v>62910.493999999999</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>107804.85500000001</v>
+        <v>109109.395</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>121295.11099999999</v>
+        <v>122976.121</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>293908.234</v>
+        <v>289521.34599999996</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>279452.19</v>
+        <v>287758.79000000004</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
@@ -9252,20 +9252,20 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1209730.2420000001</v>
+        <v>1222517.1940000001</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>143736.334</v>
+        <v>146021.524</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>636369.81800000009</v>
+        <v>645237.05800000008</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>384828.62899999996</v>
+        <v>390106.13899999997</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -9881,31 +9881,31 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>111.49400218102508</v>
+        <v>157.2546346782988</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
-        <v>110.18518518518519</v>
+        <v>145.7037037037037</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="17"/>
-        <v>171.57448559670783</v>
+        <v>265.61522633744852</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="17"/>
-        <v>75.839784946236563</v>
+        <v>110.90806451612904</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" si="17"/>
-        <v>52.575856443719417</v>
+        <v>79.998531810766721</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="17"/>
-        <v>41.660854700854699</v>
+        <v>4.1660854700854699</v>
       </c>
       <c r="I38" s="28">
         <f t="shared" si="17"/>
-        <v>123.5153846153846</v>
+        <v>194.51196581196584</v>
       </c>
       <c r="J38" s="28">
         <f t="shared" si="17"/>
@@ -9913,20 +9913,20 @@
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>92.131887360625058</v>
+        <v>118.14912509156018</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
         <f>M13/M27</f>
-        <v>144.53323572474378</v>
+        <v>177.99136163982431</v>
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>100.80534410439647</v>
+        <v>135.24390243902437</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>87.264771680484259</v>
+        <v>121.98980128964337</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -10543,31 +10543,31 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>3071.4152671755728</v>
+        <v>3117.1758996728463</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
-        <v>2793.963074074074</v>
+        <v>2829.4815925925923</v>
       </c>
       <c r="E50" s="28">
         <f t="shared" si="29"/>
-        <v>2494.8684773662553</v>
+        <v>2588.9092181069959</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="29"/>
-        <v>2897.9799731182798</v>
+        <v>2933.0482526881719</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="29"/>
-        <v>1978.7130668841762</v>
+        <v>2006.1357422512235</v>
       </c>
       <c r="H50" s="28">
         <f t="shared" si="29"/>
-        <v>2512.0361880341879</v>
+        <v>2474.5414188034183</v>
       </c>
       <c r="I50" s="28">
         <f t="shared" si="29"/>
-        <v>2388.4802564102565</v>
+        <v>2459.4768376068378</v>
       </c>
       <c r="J50" s="28">
         <f t="shared" si="29"/>
@@ -10575,20 +10575,20 @@
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2461.4027874989829</v>
+        <v>2487.4200252299179</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
         <f>M25/M27</f>
-        <v>2104.4851244509518</v>
+        <v>2137.9432503660323</v>
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2471.5310626068044</v>
+        <v>2505.9696209414324</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2532.100467166732</v>
+        <v>2566.8254967758912</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -10598,31 +10598,31 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3071.4152671755728</v>
+        <v>3117.1758996728463</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>2793.963074074074</v>
+        <v>2829.4815925925923</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2494.8684773662553</v>
+        <v>2588.9092181069959</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>2897.9799731182798</v>
+        <v>2933.0482526881719</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>1978.7130668841762</v>
+        <v>2006.1357422512235</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2512.0361880341879</v>
+        <v>2474.5414188034183</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2388.4802564102565</v>
+        <v>2459.4768376068378</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
@@ -10630,20 +10630,20 @@
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2461.4027874989829</v>
+        <v>2487.4200252299179</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2104.4851244509518</v>
+        <v>2137.9432503660323</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2471.5310626068044</v>
+        <v>2505.9696209414324</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2532.100467166732</v>
+        <v>2566.8254967758912</v>
       </c>
     </row>
   </sheetData>
@@ -11245,31 +11245,31 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="E13" s="3">
         <f>所有燃气电厂!E13</f>
-        <v>4169.26</v>
+        <v>6454.45</v>
       </c>
       <c r="F13" s="3">
         <f>所有燃气电厂!F13</f>
-        <v>2821.2400000000002</v>
+        <v>4125.7800000000007</v>
       </c>
       <c r="G13" s="3">
         <f>所有燃气电厂!G13</f>
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="H13" s="3">
         <f>所有燃气电厂!H13</f>
-        <v>4874.32</v>
+        <v>487.43199999999996</v>
       </c>
       <c r="I13" s="3">
         <f>所有燃气电厂!I13</f>
-        <v>14451.3</v>
+        <v>22757.9</v>
       </c>
       <c r="J13" s="3">
         <f>所有燃气电厂!J13</f>
@@ -11277,20 +11277,20 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>45280.98</v>
+        <v>58067.932000000001</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>9871.619999999999</v>
+        <v>12156.81</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>25955.360000000004</v>
+        <v>34822.6</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>13262.5</v>
+        <v>18540.010000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -11907,31 +11907,31 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>121784.792</v>
+        <v>123463.292</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
-        <v>166634.326</v>
+        <v>168552.326</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>69772.039999999994</v>
+        <v>72057.23</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="6"/>
-        <v>114144.39300000001</v>
+        <v>115448.933</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="6"/>
-        <v>137734.519</v>
+        <v>139415.52900000001</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="6"/>
-        <v>308203.174</v>
+        <v>303816.28599999996</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
-        <v>300644.40999999997</v>
+        <v>308951.01</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
@@ -11939,20 +11939,20 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1311901.5799999998</v>
+        <v>1324688.5320000001</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>162755.96600000001</v>
+        <v>165041.15600000002</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>703053.99599999993</v>
+        <v>711921.23600000003</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>426153.63699999999</v>
+        <v>431431.147</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11962,31 +11962,31 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>121784.792</v>
+        <v>123463.292</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>166634.326</v>
+        <v>168552.326</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>69772.039999999994</v>
+        <v>72057.23</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>114144.39300000001</v>
+        <v>115448.933</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>137734.519</v>
+        <v>139415.52900000001</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>308203.174</v>
+        <v>303816.28599999996</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>300644.40999999997</v>
+        <v>308951.01</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
@@ -11994,20 +11994,20 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1311901.5799999998</v>
+        <v>1324688.5320000001</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>162755.96600000001</v>
+        <v>165041.15600000002</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>703053.99599999993</v>
+        <v>711921.23600000003</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>426153.63699999999</v>
+        <v>431431.147</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -12623,31 +12623,31 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>111.49400218102508</v>
+        <v>157.2546346782988</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
-        <v>110.18518518518519</v>
+        <v>145.7037037037037</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="17"/>
-        <v>171.57448559670783</v>
+        <v>265.61522633744852</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="17"/>
-        <v>75.839784946236563</v>
+        <v>110.90806451612904</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" si="17"/>
-        <v>52.575856443719417</v>
+        <v>79.998531810766721</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="17"/>
-        <v>41.660854700854699</v>
+        <v>4.1660854700854699</v>
       </c>
       <c r="I38" s="28">
         <f t="shared" si="17"/>
-        <v>123.5153846153846</v>
+        <v>194.51196581196584</v>
       </c>
       <c r="J38" s="28">
         <f t="shared" si="17"/>
@@ -12655,20 +12655,20 @@
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>92.131887360625058</v>
+        <v>118.14912509156018</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
         <f>M13/M27</f>
-        <v>144.53323572474378</v>
+        <v>177.99136163982431</v>
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>100.80534410439647</v>
+        <v>135.24390243902437</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>87.264771680484259</v>
+        <v>121.98980128964337</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -13285,31 +13285,31 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>3320.1960741548528</v>
+        <v>3365.9567066521267</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
-        <v>3085.8208518518518</v>
+        <v>3121.3393703703705</v>
       </c>
       <c r="E50" s="28">
         <f t="shared" si="29"/>
-        <v>2871.2773662551435</v>
+        <v>2965.3181069958846</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="29"/>
-        <v>3068.3976612903225</v>
+        <v>3103.4659408602151</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="29"/>
-        <v>2246.89264274062</v>
+        <v>2274.3153181076673</v>
       </c>
       <c r="H50" s="28">
         <f t="shared" si="29"/>
-        <v>2634.2151623931622</v>
+        <v>2596.7203931623931</v>
       </c>
       <c r="I50" s="28">
         <f t="shared" si="29"/>
-        <v>2569.6103418803418</v>
+        <v>2640.6069230769231</v>
       </c>
       <c r="J50" s="28">
         <f t="shared" si="29"/>
@@ -13317,20 +13317,20 @@
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2669.2878245299908</v>
+        <v>2695.3050622609262</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
         <f>M25/M27</f>
-        <v>2382.9570424597368</v>
+        <v>2416.4151683748173</v>
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2730.5188597172591</v>
+        <v>2764.9574180518875</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2804.0112975391494</v>
+        <v>2838.7363271483086</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -13340,31 +13340,31 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3320.1960741548528</v>
+        <v>3365.9567066521267</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>3085.8208518518518</v>
+        <v>3121.3393703703705</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2871.2773662551435</v>
+        <v>2965.3181069958846</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>3068.3976612903225</v>
+        <v>3103.4659408602151</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2246.89264274062</v>
+        <v>2274.3153181076673</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2634.2151623931622</v>
+        <v>2596.7203931623931</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2569.6103418803418</v>
+        <v>2640.6069230769231</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
@@ -13372,20 +13372,20 @@
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2669.2878245299908</v>
+        <v>2695.3050622609262</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2382.9570424597368</v>
+        <v>2416.4151683748173</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2730.5188597172591</v>
+        <v>2764.9574180518875</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2804.0112975391494</v>
+        <v>2838.7363271483086</v>
       </c>
     </row>
   </sheetData>
@@ -15611,27 +15611,27 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>4089.6</v>
+        <v>5768.1</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
-        <v>5950</v>
+        <v>7868</v>
       </c>
       <c r="E13" s="18">
         <f>所有燃气电厂!M13</f>
-        <v>9871.619999999999</v>
+        <v>12156.81</v>
       </c>
       <c r="F13" s="18">
         <f>所有燃气电厂!F13</f>
-        <v>2821.2400000000002</v>
+        <v>4125.7800000000007</v>
       </c>
       <c r="G13" s="18">
         <f>所有燃气电厂!G13</f>
-        <v>3222.9</v>
+        <v>4903.91</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>25955.360000000004</v>
+        <v>34822.600000000006</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15961,27 +15961,27 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>115332.9431</v>
+        <v>117011.4431</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E25" s="10">
         <f>所有燃气电厂!M25</f>
-        <v>148003.63</v>
+        <v>150288.82</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>665564.19310000003</v>
+        <v>674431.43310000002</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15991,27 +15991,27 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>115332.9431</v>
+        <v>117011.4431</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
-        <v>163453.69400000002</v>
+        <v>165371.69400000002</v>
       </c>
       <c r="E26" s="10">
         <f>所有燃气电厂!M26</f>
-        <v>148003.63</v>
+        <v>150288.82</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
-        <v>112340.96900000001</v>
+        <v>113645.50900000001</v>
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>126432.95699999998</v>
+        <v>128113.96699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>665564.19310000003</v>
+        <v>674431.43310000002</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -16350,27 +16350,27 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>111.49400218102508</v>
+        <v>157.2546346782988</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
-        <v>110.18518518518519</v>
+        <v>145.7037037037037</v>
       </c>
       <c r="E38" s="14">
         <f>所有燃气电厂!M38</f>
-        <v>144.53323572474378</v>
+        <v>177.99136163982431</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="11"/>
-        <v>75.839784946236563</v>
+        <v>110.90806451612904</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="11"/>
-        <v>52.575856443719417</v>
+        <v>79.998531810766721</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>100.80534410439647</v>
+        <v>135.2439024390244</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16712,27 +16712,27 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3144.3005207197384</v>
+        <v>3190.0611532170119</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E50" s="42">
         <f>所有燃气电厂!M50</f>
-        <v>2166.9638360175695</v>
+        <v>2200.4219619326504</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>2062.5278466557911</v>
+        <v>2089.9505220228384</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2584.9160831909276</v>
+        <v>2619.3546415255555</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16742,27 +16742,27 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3144.3005207197384</v>
+        <v>3190.0611532170119</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
-        <v>3026.9202592592596</v>
+        <v>3062.4387777777779</v>
       </c>
       <c r="E51" s="42">
         <f>所有燃气电厂!M51</f>
-        <v>2166.9638360175695</v>
+        <v>2200.4219619326504</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
-        <v>3019.9185215053762</v>
+        <v>3054.9868010752689</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>2062.5278466557911</v>
+        <v>2089.9505220228384</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2584.9160831909276</v>
+        <v>2619.3546415255555</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/以前文件/利用小时统计分析表2018.11.06.xlsx
+++ b/工作代码/每日报表/以前文件/利用小时统计分析表2018.11.06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\以前文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4FBCA-B971-49AC-8A80-AAC818B53F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEA1BFB-FE57-4494-9307-5675CCCFEDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1488" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1944" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有燃气电厂" sheetId="3" r:id="rId1"/>
@@ -1341,19 +1341,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="D13" s="18">
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="E13" s="18">
-        <v>6454.45</v>
+        <v>8105.8600000000006</v>
       </c>
       <c r="F13" s="18">
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="G13" s="18">
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="H13" s="18">
         <v>487.43199999999996</v>
@@ -1362,19 +1362,19 @@
         <v>22757.9</v>
       </c>
       <c r="J13" s="18">
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
       <c r="K13" s="19">
         <f>SUM(C13:J13)</f>
-        <v>58067.932000000001</v>
+        <v>69766.962</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="1"/>
-        <v>12156.81</v>
+        <v>18759.23</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>28947.692000000003</v>
+        <v>33898.702000000005</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1915,23 +1915,23 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="7"/>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="8"/>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="9"/>
-        <v>61454.973999999995</v>
+        <v>63106.383999999998</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="10"/>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="11"/>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="12"/>
@@ -1943,19 +1943,19 @@
       </c>
       <c r="J25" s="11">
         <f t="shared" si="12"/>
-        <v>88833.846000000005</v>
+        <v>93784.856</v>
       </c>
       <c r="K25" s="12">
         <f>K24+K13</f>
-        <v>1257651.446</v>
+        <v>1269350.476</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>150288.82</v>
+        <v>156891.24</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>670189.04200000002</v>
+        <v>675140.05200000003</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1965,23 +1965,23 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="7"/>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="8"/>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="9"/>
-        <v>61454.973999999995</v>
+        <v>63106.383999999998</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="12"/>
@@ -1993,19 +1993,19 @@
       </c>
       <c r="J26" s="11">
         <f t="shared" si="12"/>
-        <v>88833.846000000005</v>
+        <v>93784.856</v>
       </c>
       <c r="K26" s="12">
         <f>K25+K14</f>
-        <v>1257651.446</v>
+        <v>1269350.476</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>150288.82</v>
+        <v>156891.24</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>670189.04200000002</v>
+        <v>675140.05200000003</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2581,23 +2581,23 @@
       </c>
       <c r="C38" s="14">
         <f>C13/C27</f>
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" ref="D38:J38" si="31">D13/D27</f>
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="31"/>
-        <v>265.61522633744852</v>
+        <v>333.57448559670786</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="31"/>
-        <v>110.90806451612904</v>
+        <v>131.7510752688172</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="31"/>
-        <v>79.998531810766721</v>
+        <v>92.493637846655787</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="31"/>
@@ -2609,21 +2609,21 @@
       </c>
       <c r="J38" s="14">
         <f t="shared" si="31"/>
-        <v>129.5990909090909</v>
+        <v>242.12204545454543</v>
       </c>
       <c r="K38" s="15">
         <f>K13/K27</f>
-        <v>118.14912509156018</v>
+        <v>141.95279970700739</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="15">
         <f>M13/M27</f>
-        <v>177.99136163982431</v>
+        <v>274.65929721815519</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="15">
         <f t="shared" ref="O38" si="32">O13/O27</f>
-        <v>104.12838848920865</v>
+        <v>121.93777697841729</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3207,23 +3207,23 @@
       </c>
       <c r="C50" s="16">
         <f t="shared" ref="C50:K50" si="55">C25/C27</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" si="55"/>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E50" s="16">
         <f t="shared" si="55"/>
-        <v>2529.0112757201641</v>
+        <v>2596.9705349794235</v>
       </c>
       <c r="F50" s="16">
         <f t="shared" si="55"/>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G50" s="16">
         <f t="shared" si="55"/>
-        <v>2089.9505220228384</v>
+        <v>2102.4456280587274</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" si="55"/>
@@ -3235,21 +3235,21 @@
       </c>
       <c r="J50" s="16">
         <f t="shared" si="55"/>
-        <v>2018.9510454545455</v>
+        <v>2131.4740000000002</v>
       </c>
       <c r="K50" s="17">
         <f t="shared" si="55"/>
-        <v>2558.9066615121674</v>
+        <v>2582.7103361276145</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="17">
         <f>M25/M27</f>
-        <v>2200.4219619326504</v>
+        <v>2297.0898975109808</v>
       </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17">
         <f t="shared" ref="O50" si="56">O25/O27</f>
-        <v>2410.7519496402879</v>
+        <v>2428.5613381294966</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3259,23 +3259,23 @@
       </c>
       <c r="C51" s="16">
         <f t="shared" ref="C51:K51" si="57">C26/C27</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="57"/>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="57"/>
-        <v>2529.0112757201641</v>
+        <v>2596.9705349794235</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="57"/>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="57"/>
-        <v>2089.9505220228384</v>
+        <v>2102.4456280587274</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="57"/>
@@ -3287,21 +3287,21 @@
       </c>
       <c r="J51" s="16">
         <f t="shared" si="57"/>
-        <v>2018.9510454545455</v>
+        <v>2131.4740000000002</v>
       </c>
       <c r="K51" s="17">
         <f t="shared" si="57"/>
-        <v>2558.9066615121674</v>
+        <v>2582.7103361276145</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="17">
         <f>M26/M27</f>
-        <v>2200.4219619326504</v>
+        <v>2297.0898975109808</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17">
         <f t="shared" ref="O51" si="58">O26/O27</f>
-        <v>2410.7519496402879</v>
+        <v>2428.5613381294966</v>
       </c>
     </row>
   </sheetData>
@@ -3668,27 +3668,27 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="E13" s="18">
         <f>所有燃气电厂!E13</f>
-        <v>6454.45</v>
+        <v>8105.8600000000006</v>
       </c>
       <c r="F13" s="18">
         <f>所有燃气电厂!F13</f>
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="G13" s="18">
         <f>所有燃气电厂!G13</f>
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>29120.240000000002</v>
+        <v>35868.26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4015,27 +4015,27 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f>SUM(E3:E13)</f>
-        <v>61454.973999999995</v>
+        <v>63106.383999999998</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>587462.40399999998</v>
+        <v>594210.424</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4045,27 +4045,27 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f>SUM(E3:E14)</f>
-        <v>61454.973999999995</v>
+        <v>63106.383999999998</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>587462.40399999998</v>
+        <v>594210.424</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4403,27 +4403,27 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="11"/>
-        <v>265.61522633744852</v>
+        <v>333.57448559670786</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="11"/>
-        <v>110.90806451612904</v>
+        <v>131.7510752688172</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="11"/>
-        <v>82.418655462184873</v>
+        <v>95.291764705882343</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>137.56727135298564</v>
+        <v>169.44567271352986</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4765,27 +4765,27 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="23"/>
-        <v>2529.0112757201641</v>
+        <v>2596.9705349794235</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>2153.1759159663866</v>
+        <v>2166.049025210084</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2775.2381141345427</v>
+        <v>2807.1165154950868</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,27 +4795,27 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" si="24"/>
-        <v>2529.0112757201641</v>
+        <v>2596.9705349794235</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>2153.1759159663866</v>
+        <v>2166.049025210084</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2775.2381141345427</v>
+        <v>2807.1165154950868</v>
       </c>
     </row>
   </sheetData>
@@ -5090,19 +5090,19 @@
       </c>
       <c r="C13" s="18">
         <f>'110KV'!C13</f>
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="D13" s="18">
         <f>'110KV'!D13</f>
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="E13" s="18">
         <f>'110KV'!G13</f>
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>18540.010000000002</v>
+        <v>22861.260000000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,19 +5356,19 @@
       </c>
       <c r="C25" s="11">
         <f>'110KV'!C25</f>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D25" s="11">
         <f>'110KV'!D25</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E25" s="11">
         <f>'110KV'!G25</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>412361.92100000003</v>
+        <v>416683.17099999997</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C26" s="11">
         <f>'110KV'!C26</f>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D26" s="11">
         <f>'110KV'!D26</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f>'110KV'!G26</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>412361.92100000003</v>
+        <v>416683.17099999997</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="C38" s="14">
         <f>'110KV'!C38</f>
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="D38" s="14">
         <f>'110KV'!D38</f>
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="E38" s="14">
         <f>'110KV'!G38</f>
-        <v>82.418655462184873</v>
+        <v>95.291764705882343</v>
       </c>
       <c r="F38" s="14">
         <f>F13/F27</f>
-        <v>123.45192435743775</v>
+        <v>152.22572912504995</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C50" s="21">
         <f>'110KV'!C50</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D50" s="21">
         <f>'110KV'!D50</f>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E50" s="21">
         <f>'110KV'!G50</f>
-        <v>2153.1759159663866</v>
+        <v>2166.049025210084</v>
       </c>
       <c r="F50" s="21">
         <f>F25/F27</f>
-        <v>2745.7845318950594</v>
+        <v>2774.5583366626711</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,19 +5932,19 @@
       </c>
       <c r="C51" s="21">
         <f>'110KV'!C51</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D51" s="21">
         <f>'110KV'!D51</f>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E51" s="21">
         <f>'110KV'!G51</f>
-        <v>2153.1759159663866</v>
+        <v>2166.049025210084</v>
       </c>
       <c r="F51" s="21">
         <f>F26/F27</f>
-        <v>2745.7845318950594</v>
+        <v>2774.5583366626711</v>
       </c>
     </row>
   </sheetData>
@@ -5968,7 +5968,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6400,35 +6400,35 @@
       </c>
       <c r="C13" s="23">
         <f>所有燃气电厂!C13</f>
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="D13" s="23">
         <f>所有燃气电厂!D13</f>
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="E13" s="23">
         <f>所有燃气电厂!E13</f>
-        <v>6454.45</v>
+        <v>8105.8600000000006</v>
       </c>
       <c r="F13" s="23">
         <f>所有燃气电厂!F13</f>
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="G13" s="23">
         <f>所有燃气电厂!G13</f>
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="H13" s="23">
         <f>所有燃气电厂!J13</f>
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="0"/>
-        <v>34822.6</v>
+        <v>46521.630000000005</v>
       </c>
       <c r="K13">
         <f>所有燃气电厂!M13</f>
-        <v>12156.81</v>
+        <v>18759.23</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6858,35 +6858,35 @@
       </c>
       <c r="C25" s="25">
         <f>所有燃气电厂!C25</f>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D25" s="25">
         <f>所有燃气电厂!D25</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E25" s="25">
         <f>所有燃气电厂!E25</f>
-        <v>61454.973999999995</v>
+        <v>63106.383999999998</v>
       </c>
       <c r="F25" s="25">
         <f>所有燃气电厂!F25</f>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G25" s="25">
         <f>所有燃气电厂!G25</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H25" s="25">
         <f>所有燃气电厂!J25</f>
-        <v>88833.846000000005</v>
+        <v>93784.856</v>
       </c>
       <c r="I25" s="32">
         <f t="shared" si="1"/>
-        <v>676296.25</v>
+        <v>687995.28</v>
       </c>
       <c r="K25">
         <f>所有燃气电厂!M25</f>
-        <v>150288.82</v>
+        <v>156891.24</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6896,35 +6896,35 @@
       </c>
       <c r="C26" s="25">
         <f>所有燃气电厂!C26</f>
-        <v>118876.26000000001</v>
+        <v>121049.56</v>
       </c>
       <c r="D26" s="25">
         <f>所有燃气电厂!D26</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E26" s="25">
         <f>所有燃气电厂!E26</f>
-        <v>61454.973999999995</v>
+        <v>63106.383999999998</v>
       </c>
       <c r="F26" s="25">
         <f>所有燃气电厂!F26</f>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G26" s="25">
         <f>所有燃气电厂!G26</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H26" s="25">
         <f>所有燃气电厂!J26</f>
-        <v>88833.846000000005</v>
+        <v>93784.856</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>676296.25</v>
+        <v>687995.28</v>
       </c>
       <c r="K26">
         <f>所有燃气电厂!M26</f>
-        <v>150288.82</v>
+        <v>156891.24</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7364,36 +7364,36 @@
       </c>
       <c r="C38" s="38">
         <f>所有燃气电厂!C38</f>
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="D38" s="38">
         <f>所有燃气电厂!D38</f>
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="E38" s="38">
         <f>所有燃气电厂!E38</f>
-        <v>265.61522633744852</v>
+        <v>333.57448559670786</v>
       </c>
       <c r="F38" s="38">
         <f>所有燃气电厂!F38</f>
-        <v>110.90806451612904</v>
+        <v>131.7510752688172</v>
       </c>
       <c r="G38" s="38">
         <f>所有燃气电厂!G38</f>
-        <v>79.998531810766721</v>
+        <v>92.493637846655787</v>
       </c>
       <c r="H38" s="38">
         <f>所有燃气电厂!J38</f>
-        <v>129.5990909090909</v>
+        <v>242.12204545454543</v>
       </c>
       <c r="I38" s="39">
         <f>I13/I27</f>
-        <v>135.24390243902437</v>
+        <v>180.68055771322045</v>
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="37">
         <f>所有燃气电厂!M38</f>
-        <v>177.99136163982431</v>
+        <v>274.65929721815519</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,36 +7834,36 @@
       </c>
       <c r="C50" s="35">
         <f>所有燃气电厂!C50</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D50" s="35">
         <f>所有燃气电厂!D50</f>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E50" s="35">
         <f>所有燃气电厂!E50</f>
-        <v>2529.0112757201641</v>
+        <v>2596.9705349794235</v>
       </c>
       <c r="F50" s="35">
         <f>所有燃气电厂!F50</f>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G50" s="35">
         <f>所有燃气电厂!G50</f>
-        <v>2089.9505220228384</v>
+        <v>2102.4456280587274</v>
       </c>
       <c r="H50" s="35">
         <f>所有燃气电厂!J50</f>
-        <v>2018.9510454545455</v>
+        <v>2131.4740000000002</v>
       </c>
       <c r="I50" s="36">
         <f>I25/I27</f>
-        <v>2626.5972114338974</v>
+        <v>2672.0338667080937</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37">
         <f>所有燃气电厂!M50</f>
-        <v>2200.4219619326504</v>
+        <v>2297.0898975109808</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7873,36 +7873,36 @@
       </c>
       <c r="C51" s="35">
         <f>所有燃气电厂!C51</f>
-        <v>3240.9013086150494</v>
+        <v>3300.1515812431844</v>
       </c>
       <c r="D51" s="35">
         <f>所有燃气电厂!D51</f>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E51" s="35">
         <f>所有燃气电厂!E51</f>
-        <v>2529.0112757201641</v>
+        <v>2596.9705349794235</v>
       </c>
       <c r="F51" s="35">
         <f>所有燃气电厂!F51</f>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G51" s="35">
         <f>所有燃气电厂!G51</f>
-        <v>2089.9505220228384</v>
+        <v>2102.4456280587274</v>
       </c>
       <c r="H51" s="35">
         <f>所有燃气电厂!J51</f>
-        <v>2018.9510454545455</v>
+        <v>2131.4740000000002</v>
       </c>
       <c r="I51" s="36">
         <f>I26/I27</f>
-        <v>2626.5972114338974</v>
+        <v>2672.0338667080937</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37">
         <f>所有燃气电厂!M51</f>
-        <v>2200.4219619326504</v>
+        <v>2297.0898975109808</v>
       </c>
     </row>
   </sheetData>
@@ -8503,23 +8503,23 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="E13" s="3">
         <f>所有燃气电厂!E13</f>
-        <v>6454.45</v>
+        <v>8105.8600000000006</v>
       </c>
       <c r="F13" s="3">
         <f>所有燃气电厂!F13</f>
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="G13" s="3">
         <f>所有燃气电厂!G13</f>
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="H13" s="3">
         <f>所有燃气电厂!H13</f>
@@ -8531,24 +8531,24 @@
       </c>
       <c r="J13" s="3">
         <f>所有燃气电厂!J13</f>
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>58067.932000000001</v>
+        <v>69766.962</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>12156.81</v>
+        <v>18759.23</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>34822.6</v>
+        <v>46521.630000000005</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>18540.010000000002</v>
+        <v>22861.260000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -9165,23 +9165,23 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>114338.012</v>
+        <v>116511.31199999999</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
-        <v>152792.00599999999</v>
+        <v>154174.00599999999</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>62910.493999999999</v>
+        <v>64561.904000000002</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="6"/>
-        <v>109109.395</v>
+        <v>109884.755</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="6"/>
-        <v>122976.121</v>
+        <v>123742.071</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="6"/>
@@ -9193,24 +9193,24 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
-        <v>83111.03</v>
+        <v>88062.04</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1222517.1940000001</v>
+        <v>1234216.2239999999</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>146021.524</v>
+        <v>152623.94399999999</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>645237.05800000008</v>
+        <v>656936.08799999999</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>390106.13899999997</v>
+        <v>394427.38899999997</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -9220,23 +9220,23 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>114338.012</v>
+        <v>116511.31199999999</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>152792.00599999999</v>
+        <v>154174.00599999999</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>62910.493999999999</v>
+        <v>64561.904000000002</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>109109.395</v>
+        <v>109884.755</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>122976.121</v>
+        <v>123742.071</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
@@ -9248,24 +9248,24 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>83111.03</v>
+        <v>88062.04</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1222517.1940000001</v>
+        <v>1234216.2239999999</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>146021.524</v>
+        <v>152623.94399999999</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>645237.05800000008</v>
+        <v>656936.08799999999</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>390106.13899999997</v>
+        <v>394427.38899999997</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -9881,23 +9881,23 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="17"/>
-        <v>265.61522633744852</v>
+        <v>333.57448559670786</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="17"/>
-        <v>110.90806451612904</v>
+        <v>131.7510752688172</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" si="17"/>
-        <v>79.998531810766721</v>
+        <v>92.493637846655787</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="17"/>
@@ -9909,24 +9909,24 @@
       </c>
       <c r="J38" s="28">
         <f t="shared" si="17"/>
-        <v>129.5990909090909</v>
+        <v>242.12204545454543</v>
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>118.14912509156018</v>
+        <v>141.95279970700739</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
         <f>M13/M27</f>
-        <v>177.99136163982431</v>
+        <v>274.65929721815519</v>
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>135.24390243902437</v>
+        <v>180.68055771322045</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>121.98980128964337</v>
+        <v>150.4228187919463</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -10543,23 +10543,23 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>3117.1758996728463</v>
+        <v>3176.4261723009813</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
-        <v>2829.4815925925923</v>
+        <v>2855.0741851851849</v>
       </c>
       <c r="E50" s="28">
         <f t="shared" si="29"/>
-        <v>2588.9092181069959</v>
+        <v>2656.8684773662553</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="29"/>
-        <v>2933.0482526881719</v>
+        <v>2953.8912634408603</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="29"/>
-        <v>2006.1357422512235</v>
+        <v>2018.6308482871125</v>
       </c>
       <c r="H50" s="28">
         <f t="shared" si="29"/>
@@ -10571,24 +10571,24 @@
       </c>
       <c r="J50" s="28">
         <f t="shared" si="29"/>
-        <v>1888.8870454545454</v>
+        <v>2001.4099999999999</v>
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2487.4200252299179</v>
+        <v>2511.223699845365</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
         <f>M25/M27</f>
-        <v>2137.9432503660323</v>
+        <v>2234.6111859443631</v>
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2505.9696209414324</v>
+        <v>2551.4062762156282</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2566.8254967758912</v>
+        <v>2595.2585142781941</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -10598,23 +10598,23 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3117.1758996728463</v>
+        <v>3176.4261723009813</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>2829.4815925925923</v>
+        <v>2855.0741851851849</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2588.9092181069959</v>
+        <v>2656.8684773662553</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>2933.0482526881719</v>
+        <v>2953.8912634408603</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2006.1357422512235</v>
+        <v>2018.6308482871125</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
@@ -10626,24 +10626,24 @@
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>1888.8870454545454</v>
+        <v>2001.4099999999999</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2487.4200252299179</v>
+        <v>2511.223699845365</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2137.9432503660323</v>
+        <v>2234.6111859443631</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2505.9696209414324</v>
+        <v>2551.4062762156282</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2566.8254967758912</v>
+        <v>2595.2585142781941</v>
       </c>
     </row>
   </sheetData>
@@ -11245,23 +11245,23 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="E13" s="3">
         <f>所有燃气电厂!E13</f>
-        <v>6454.45</v>
+        <v>8105.8600000000006</v>
       </c>
       <c r="F13" s="3">
         <f>所有燃气电厂!F13</f>
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="G13" s="3">
         <f>所有燃气电厂!G13</f>
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="H13" s="3">
         <f>所有燃气电厂!H13</f>
@@ -11273,24 +11273,24 @@
       </c>
       <c r="J13" s="3">
         <f>所有燃气电厂!J13</f>
-        <v>5702.36</v>
+        <v>10653.369999999999</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>58067.932000000001</v>
+        <v>69766.962</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
         <f t="shared" si="2"/>
-        <v>12156.81</v>
+        <v>18759.23</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>34822.6</v>
+        <v>46521.630000000005</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>18540.010000000002</v>
+        <v>22861.260000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -11907,23 +11907,23 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>123463.292</v>
+        <v>125636.59199999999</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
-        <v>168552.326</v>
+        <v>169934.326</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="6"/>
-        <v>72057.23</v>
+        <v>73708.639999999999</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="6"/>
-        <v>115448.933</v>
+        <v>116224.29300000001</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="6"/>
-        <v>139415.52900000001</v>
+        <v>140181.47899999999</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="6"/>
@@ -11935,24 +11935,24 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
-        <v>92983.926000000007</v>
+        <v>97934.936000000002</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1324688.5320000001</v>
+        <v>1336387.5620000002</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f t="shared" si="2"/>
-        <v>165041.15600000002</v>
+        <v>171643.576</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>711921.23600000003</v>
+        <v>723620.26600000006</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>431431.147</v>
+        <v>435752.397</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11962,23 +11962,23 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>123463.292</v>
+        <v>125636.59199999999</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>168552.326</v>
+        <v>169934.326</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>72057.23</v>
+        <v>73708.639999999999</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>115448.933</v>
+        <v>116224.29300000001</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>139415.52900000001</v>
+        <v>140181.47899999999</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
@@ -11990,24 +11990,24 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>92983.926000000007</v>
+        <v>97934.936000000002</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1324688.5320000001</v>
+        <v>1336387.5620000002</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>165041.15600000002</v>
+        <v>171643.576</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>711921.23600000003</v>
+        <v>723620.26600000006</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>431431.147</v>
+        <v>435752.397</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -12623,23 +12623,23 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" si="17"/>
-        <v>265.61522633744852</v>
+        <v>333.57448559670786</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="17"/>
-        <v>110.90806451612904</v>
+        <v>131.7510752688172</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" si="17"/>
-        <v>79.998531810766721</v>
+        <v>92.493637846655787</v>
       </c>
       <c r="H38" s="28">
         <f t="shared" si="17"/>
@@ -12651,24 +12651,24 @@
       </c>
       <c r="J38" s="28">
         <f t="shared" si="17"/>
-        <v>129.5990909090909</v>
+        <v>242.12204545454543</v>
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>118.14912509156018</v>
+        <v>141.95279970700739</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
         <f>M13/M27</f>
-        <v>177.99136163982431</v>
+        <v>274.65929721815519</v>
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>135.24390243902437</v>
+        <v>180.68055771322045</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>121.98980128964337</v>
+        <v>150.4228187919463</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -13285,23 +13285,23 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>3365.9567066521267</v>
+        <v>3425.2069792802613</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
-        <v>3121.3393703703705</v>
+        <v>3146.9319629629631</v>
       </c>
       <c r="E50" s="28">
         <f t="shared" si="29"/>
-        <v>2965.3181069958846</v>
+        <v>3033.277366255144</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="29"/>
-        <v>3103.4659408602151</v>
+        <v>3124.308951612903</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="29"/>
-        <v>2274.3153181076673</v>
+        <v>2286.8104241435562</v>
       </c>
       <c r="H50" s="28">
         <f t="shared" si="29"/>
@@ -13313,24 +13313,24 @@
       </c>
       <c r="J50" s="28">
         <f t="shared" si="29"/>
-        <v>2113.2710454545454</v>
+        <v>2225.7939999999999</v>
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2695.3050622609262</v>
+        <v>2719.1087368763738</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
         <f>M25/M27</f>
-        <v>2416.4151683748173</v>
+        <v>2513.0831039531481</v>
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2764.9574180518875</v>
+        <v>2810.3940733260838</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2838.7363271483086</v>
+        <v>2867.1693446506115</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -13340,23 +13340,23 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3365.9567066521267</v>
+        <v>3425.2069792802613</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>3121.3393703703705</v>
+        <v>3146.9319629629631</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2965.3181069958846</v>
+        <v>3033.277366255144</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>3103.4659408602151</v>
+        <v>3124.308951612903</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2274.3153181076673</v>
+        <v>2286.8104241435562</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
@@ -13368,24 +13368,24 @@
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2113.2710454545454</v>
+        <v>2225.7939999999999</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2695.3050622609262</v>
+        <v>2719.1087368763738</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2416.4151683748173</v>
+        <v>2513.0831039531481</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2764.9574180518875</v>
+        <v>2810.3940733260838</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2838.7363271483086</v>
+        <v>2867.1693446506115</v>
       </c>
     </row>
   </sheetData>
@@ -15611,27 +15611,27 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>5768.1</v>
+        <v>7941.4</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
-        <v>7868</v>
+        <v>9250</v>
       </c>
       <c r="E13" s="18">
         <f>所有燃气电厂!M13</f>
-        <v>12156.81</v>
+        <v>18759.23</v>
       </c>
       <c r="F13" s="18">
         <f>所有燃气电厂!F13</f>
-        <v>4125.7800000000007</v>
+        <v>4901.1400000000003</v>
       </c>
       <c r="G13" s="18">
         <f>所有燃气电厂!G13</f>
-        <v>4903.91</v>
+        <v>5669.86</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>34822.600000000006</v>
+        <v>46521.630000000005</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15961,27 +15961,27 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>117011.4431</v>
+        <v>119184.74309999999</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E25" s="10">
         <f>所有燃气电厂!M25</f>
-        <v>150288.82</v>
+        <v>156891.24</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>674431.43310000002</v>
+        <v>686130.46309999994</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15991,27 +15991,27 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>117011.4431</v>
+        <v>119184.74309999999</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
-        <v>165371.69400000002</v>
+        <v>166753.69400000002</v>
       </c>
       <c r="E26" s="10">
         <f>所有燃气电厂!M26</f>
-        <v>150288.82</v>
+        <v>156891.24</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
-        <v>113645.50900000001</v>
+        <v>114420.86900000001</v>
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>128113.96699999999</v>
+        <v>128879.91699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>674431.43310000002</v>
+        <v>686130.46309999994</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -16350,27 +16350,27 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>157.2546346782988</v>
+        <v>216.50490730643401</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
-        <v>145.7037037037037</v>
+        <v>171.2962962962963</v>
       </c>
       <c r="E38" s="14">
         <f>所有燃气电厂!M38</f>
-        <v>177.99136163982431</v>
+        <v>274.65929721815519</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="11"/>
-        <v>110.90806451612904</v>
+        <v>131.7510752688172</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="11"/>
-        <v>79.998531810766721</v>
+        <v>92.493637846655787</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>135.2439024390244</v>
+        <v>180.68055771322045</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16712,27 +16712,27 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3190.0611532170119</v>
+        <v>3249.3114258451469</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E50" s="42">
         <f>所有燃气电厂!M50</f>
-        <v>2200.4219619326504</v>
+        <v>2297.0898975109808</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>2089.9505220228384</v>
+        <v>2102.4456280587274</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2619.3546415255555</v>
+        <v>2664.7912967997509</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16742,27 +16742,27 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3190.0611532170119</v>
+        <v>3249.3114258451469</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
-        <v>3062.4387777777779</v>
+        <v>3088.0313703703705</v>
       </c>
       <c r="E51" s="42">
         <f>所有燃气电厂!M51</f>
-        <v>2200.4219619326504</v>
+        <v>2297.0898975109808</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
-        <v>3054.9868010752689</v>
+        <v>3075.8298118279567</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>2089.9505220228384</v>
+        <v>2102.4456280587274</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2619.3546415255555</v>
+        <v>2664.7912967997509</v>
       </c>
     </row>
   </sheetData>
